--- a/biology/Botanique/Beilschmiedia/Beilschmiedia.xlsx
+++ b/biology/Botanique/Beilschmiedia/Beilschmiedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beilschmiedia est un genre d'arbres et d'arbustes de la famille des Lauraceae.
 La plupart des espèces poussent sous les climats tropicaux et peu d'entre elles sont originaires des régions tempérées. Elles sont répandues dans les régions tropicales d'Asie, Afrique, Australie, Nouvelle-Calédonie, Nouvelle-Zélande, Amérique centrale, Caraïbes et Amérique du Sud jusqu'au Chili.
@@ -516,9 +528,11 @@
           <t>Liste des variétés et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 septembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 septembre 2017) :
 Beilschmiedia aborensis Kosterm.
 Beilschmiedia acuta Kosterm.
 Beilschmiedia acutifolia Teschn.
@@ -791,7 +805,7 @@
 Beilschmiedia zahnii (K. Krause) Robyns &amp; Wilczek
 Beilschmiedia zenkeri Engl.
 Beilschmiedia zeylanica (Thw.) Trim.
-Selon GRIN            (17 septembre 2017)[3] :
+Selon GRIN            (17 septembre 2017) :
 Beilschmiedia bancroftii (F. M. Bailey) C. T. White
 Beilschmiedia clarkei Hook. f.
 Beilschmiedia intermedia C. K. Allen
@@ -800,10 +814,10 @@
 Beilschmiedia miersii (Gay) Kosterm.
 Beilschmiedia obtusifolia (F. Muell. ex Meisn.) F. Muell.
 Beilschmiedia tawa (A. Cunn.) Kirk
-Selon ITIS      (17 septembre 2017)[4] :
+Selon ITIS      (17 septembre 2017) :
 Beilschmiedia pendula (Sw.) Hemsl.
 Beilschmiedia roxburgiana Nees
-Selon NCBI  (17 septembre 2017)[5] :
+Selon NCBI  (17 septembre 2017) :
 Beilschmiedia acuta
 Beilschmiedia alloiophylla
 Beilschmiedia anay
@@ -859,7 +873,7 @@
 Beilschmiedia velutina
 Beilschmiedia volckii
 Beilschmiedia yunnanensis
-Selon The Plant List            (17 septembre 2017)[6] :
+Selon The Plant List            (17 septembre 2017) :
 Beilschmiedia aborensis Kosterm.
 Beilschmiedia acuta Kosterm.
 Beilschmiedia acutifolia Teschner
@@ -1147,7 +1161,7 @@
 Beilschmiedia zapoteoides (Lundell) Kosterm.
 Beilschmiedia zenkeri Engl.
 Beilschmiedia zeylanica (Thwaites) Trimen
-Selon Tropicos                                           (17 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Beilschmiedia aborensis Kosterm.
 Beilschmiedia acuta Kosterm.
 Beilschmiedia acutifolia Teschner
@@ -1367,7 +1381,7 @@
 Beilschmiedia obovatifoliosa Lecomte
 Beilschmiedia obscura (Stapf) A. Chev.
 Beilschmiedia obscurinervia H.T. Chang
-Beilschmiedi</t>
+Beilschmiedia obtusifolia (F. </t>
         </is>
       </c>
     </row>
